--- a/data/province.xlsx
+++ b/data/province.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="767">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2358,6 +2358,10 @@
   </si>
   <si>
     <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2720,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2729,10 +2733,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2742,8 +2747,11 @@
       <c r="C1" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -2753,8 +2761,11 @@
       <c r="C2" s="3" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>12</v>
       </c>
@@ -2764,8 +2775,11 @@
       <c r="C3" s="3" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -2775,8 +2789,11 @@
       <c r="C4" s="3" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>14</v>
       </c>
@@ -2786,8 +2803,11 @@
       <c r="C5" s="3" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -2797,8 +2817,11 @@
       <c r="C6" s="3" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>21</v>
       </c>
@@ -2808,8 +2831,11 @@
       <c r="C7" s="3" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -2819,8 +2845,11 @@
       <c r="C8" s="3" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>23</v>
       </c>
@@ -2830,8 +2859,11 @@
       <c r="C9" s="3" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>31</v>
       </c>
@@ -2841,8 +2873,11 @@
       <c r="C10" s="3" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>32</v>
       </c>
@@ -2852,8 +2887,11 @@
       <c r="C11" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>33</v>
       </c>
@@ -2863,8 +2901,11 @@
       <c r="C12" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>34</v>
       </c>
@@ -2874,8 +2915,11 @@
       <c r="C13" s="3" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>35</v>
       </c>
@@ -2885,8 +2929,11 @@
       <c r="C14" s="3" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -2896,8 +2943,11 @@
       <c r="C15" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>37</v>
       </c>
@@ -2907,8 +2957,11 @@
       <c r="C16" s="3" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>41</v>
       </c>
@@ -2918,8 +2971,11 @@
       <c r="C17" s="3" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>42</v>
       </c>
@@ -2929,8 +2985,11 @@
       <c r="C18" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43</v>
       </c>
@@ -2940,8 +2999,11 @@
       <c r="C19" s="3" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>44</v>
       </c>
@@ -2951,8 +3013,11 @@
       <c r="C20" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>45</v>
       </c>
@@ -2962,8 +3027,11 @@
       <c r="C21" s="3" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>46</v>
       </c>
@@ -2973,8 +3041,11 @@
       <c r="C22" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>50</v>
       </c>
@@ -2984,8 +3055,11 @@
       <c r="C23" s="3" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>51</v>
       </c>
@@ -2995,8 +3069,11 @@
       <c r="C24" s="3" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>52</v>
       </c>
@@ -3006,8 +3083,11 @@
       <c r="C25" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>53</v>
       </c>
@@ -3017,8 +3097,11 @@
       <c r="C26" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>54</v>
       </c>
@@ -3028,8 +3111,11 @@
       <c r="C27" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>61</v>
       </c>
@@ -3039,8 +3125,11 @@
       <c r="C28" s="3" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>62</v>
       </c>
@@ -3050,8 +3139,11 @@
       <c r="C29" s="3" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>63</v>
       </c>
@@ -3061,8 +3153,11 @@
       <c r="C30" s="3" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>64</v>
       </c>
@@ -3072,8 +3167,11 @@
       <c r="C31" s="3" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>65</v>
       </c>
@@ -3083,8 +3181,11 @@
       <c r="C32" s="3" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>71</v>
       </c>
@@ -3094,8 +3195,11 @@
       <c r="C33" s="3" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>81</v>
       </c>
@@ -3105,8 +3209,11 @@
       <c r="C34" s="3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>82</v>
       </c>
@@ -3115,6 +3222,9 @@
       </c>
       <c r="C35" s="3" t="s">
         <v>729</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/province.xlsx
+++ b/data/province.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2438,7 +2442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2480,7 +2484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2515,7 +2519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2726,7 +2730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2762,7 +2768,7 @@
         <v>696</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2776,7 +2782,7 @@
         <v>697</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2790,7 +2796,7 @@
         <v>698</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2804,7 +2810,7 @@
         <v>699</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2818,7 +2824,7 @@
         <v>700</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2832,7 +2838,7 @@
         <v>701</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2846,7 +2852,7 @@
         <v>702</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2860,7 +2866,7 @@
         <v>703</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2874,7 +2880,7 @@
         <v>704</v>
       </c>
       <c r="D10" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2888,7 +2894,7 @@
         <v>705</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2902,7 +2908,7 @@
         <v>706</v>
       </c>
       <c r="D12" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2916,7 +2922,7 @@
         <v>707</v>
       </c>
       <c r="D13" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2930,7 +2936,7 @@
         <v>708</v>
       </c>
       <c r="D14" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2944,7 +2950,7 @@
         <v>709</v>
       </c>
       <c r="D15" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2958,7 +2964,7 @@
         <v>710</v>
       </c>
       <c r="D16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2972,7 +2978,7 @@
         <v>711</v>
       </c>
       <c r="D17" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2986,7 +2992,7 @@
         <v>712</v>
       </c>
       <c r="D18" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3000,7 +3006,7 @@
         <v>713</v>
       </c>
       <c r="D19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3014,7 +3020,7 @@
         <v>714</v>
       </c>
       <c r="D20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3028,7 +3034,7 @@
         <v>715</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3042,7 +3048,7 @@
         <v>716</v>
       </c>
       <c r="D22" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3056,7 +3062,7 @@
         <v>717</v>
       </c>
       <c r="D23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3070,7 +3076,7 @@
         <v>718</v>
       </c>
       <c r="D24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3084,7 +3090,7 @@
         <v>719</v>
       </c>
       <c r="D25" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3112,7 +3118,7 @@
         <v>721</v>
       </c>
       <c r="D27" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3126,7 +3132,7 @@
         <v>722</v>
       </c>
       <c r="D28" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3140,7 +3146,7 @@
         <v>723</v>
       </c>
       <c r="D29" s="3">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3154,7 +3160,7 @@
         <v>724</v>
       </c>
       <c r="D30" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3168,7 +3174,7 @@
         <v>725</v>
       </c>
       <c r="D31" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3182,7 +3188,7 @@
         <v>726</v>
       </c>
       <c r="D32" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3196,7 +3202,7 @@
         <v>727</v>
       </c>
       <c r="D33" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3210,7 +3216,7 @@
         <v>728</v>
       </c>
       <c r="D34" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3224,7 +3230,7 @@
         <v>729</v>
       </c>
       <c r="D35" s="3">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/province.xlsx
+++ b/data/province.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2442,7 +2442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2484,7 +2484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2519,7 +2519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2731,7 +2731,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/province.xlsx
+++ b/data/province.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="771">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2119,108 +2119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>内蒙古自治区</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>吉林省</t>
-  </si>
-  <si>
-    <t>黑龙江省</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广西壮族自治区</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>贵州省</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>西藏自治区</t>
-  </si>
-  <si>
-    <t>陕西省</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>青海省</t>
-  </si>
-  <si>
-    <t>宁夏回族自治区</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
-    <t>台湾省</t>
-  </si>
-  <si>
-    <t>香港特别行政区</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
-  </si>
-  <si>
     <t>beijing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2366,6 +2264,156 @@
   </si>
   <si>
     <t>display_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>municipality</t>
+  </si>
+  <si>
+    <t>province</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2728,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2739,497 +2787,602 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>767</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D2" s="3">
+        <v>735</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D3" s="3">
+        <v>736</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E3" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D4" s="3">
+        <v>737</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D5" s="3">
+        <v>738</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D6" s="3">
+        <v>739</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D7" s="3">
+        <v>740</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D8" s="3">
+        <v>741</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D9" s="3">
+        <v>742</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D10" s="3">
+        <v>743</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D11" s="3">
+        <v>744</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D12" s="3">
+        <v>745</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D13" s="3">
+        <v>746</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D14" s="3">
+        <v>733</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D15" s="3">
+        <v>747</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D16" s="3">
+        <v>748</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D17" s="3">
+        <v>749</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D18" s="3">
+        <v>734</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D19" s="3">
+        <v>750</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D20" s="3">
+        <v>751</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D21" s="3">
+        <v>752</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D22" s="3">
+        <v>753</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E22" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D23" s="3">
+        <v>754</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D24" s="3">
+        <v>755</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E24" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D25" s="3">
+        <v>756</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E25" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D26" s="3">
+        <v>757</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D27" s="3">
+        <v>758</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D28" s="3">
+        <v>759</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E28" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D29" s="3">
+        <v>760</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E29" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D30" s="3">
+        <v>761</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E30" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D31" s="3">
+        <v>762</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E31" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D32" s="3">
+        <v>763</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E32" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>761</v>
+        <v>727</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D33" s="3">
+        <v>764</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E33" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D34" s="3">
+        <v>765</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E34" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D35" s="3">
+        <v>766</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E35" s="3">
         <v>28</v>
       </c>
     </row>
